--- a/biology/Médecine/Récepteur_de_l'angiotensine/Récepteur_de_l'angiotensine.xlsx
+++ b/biology/Médecine/Récepteur_de_l'angiotensine/Récepteur_de_l'angiotensine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9cepteur_de_l%27angiotensine</t>
+          <t>Récepteur_de_l'angiotensine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Il existe deux types de récepteurs de l'angiotensine II :
 Les AT1 inhibés par les Sartans (ou ARAII)
@@ -498,7 +510,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%A9cepteur_de_l%27angiotensine</t>
+          <t>Récepteur_de_l'angiotensine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -516,7 +528,9 @@
           <t>Exemple du mode d'action de l'angiotensine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En cas de baisse de tension, l'angiotensine II produite va se fixer sur les récepteurs AT1 de la membrane plasmique des cellules musculaires lisses (CML) de la paroi des vaisseaux sanguins. L'activation du récepteur entraine la contraction des CMLs. Les CMLs se resserrent autour du vaisseau dont le diamètre diminue. La pression augmente.
 </t>
